--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f704e96aa07bc69/Desktop/New folder/Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diksh\OneDrive\Desktop\New folder\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9EF87F89-D110-4EFE-A648-5DA03225F2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0720255-BA9B-4EE0-8B12-49A0EDCE4C86}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93440B4C-2ECE-4D39-AA07-92926FE34769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>diksha</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>pankaj</t>
+  </si>
+  <si>
+    <t>kllllol</t>
   </si>
 </sst>
 </file>
@@ -360,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -376,7 +379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -384,7 +387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -392,7 +395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -400,7 +403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -408,7 +411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -416,42 +419,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
